--- a/sheet/30-F-10-A.xlsx
+++ b/sheet/30-F-10-A.xlsx
@@ -410,16 +410,16 @@
         <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>117.2587966115536</v>
+        <v>48.67709762791309</v>
       </c>
       <c r="D2" t="n">
-        <v>34441.20375260896</v>
+        <v>34702.74078966781</v>
       </c>
       <c r="E2" t="n">
-        <v>29319.66748766961</v>
+        <v>29611.78511576338</v>
       </c>
       <c r="F2" t="n">
-        <v>-8620.211019560258</v>
+        <v>-8694.144554241182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -430,16 +430,16 @@
         <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>120.8379770493702</v>
+        <v>49.68446592218527</v>
       </c>
       <c r="D3" t="n">
-        <v>33256.7258322475</v>
+        <v>33520.9364373843</v>
       </c>
       <c r="E3" t="n">
-        <v>57623.38150399418</v>
+        <v>58212.47367324658</v>
       </c>
       <c r="F3" t="n">
-        <v>24515.67683563786</v>
+        <v>24777.10741722098</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -450,16 +450,16 @@
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>125.1297903285075</v>
+        <v>50.93381497184957</v>
       </c>
       <c r="D4" t="n">
-        <v>32111.69836844833</v>
+        <v>32378.92509466102</v>
       </c>
       <c r="E4" t="n">
-        <v>84944.1477550745</v>
+        <v>85835.83481097645</v>
       </c>
       <c r="F4" t="n">
-        <v>56502.24541375769</v>
+        <v>57105.09869691017</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -470,16 +470,16 @@
         <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>129.863944518189</v>
+        <v>52.74997562948417</v>
       </c>
       <c r="D5" t="n">
-        <v>31004.66695831827</v>
+        <v>31275.31993469546</v>
       </c>
       <c r="E5" t="n">
-        <v>111313.9991595463</v>
+        <v>112514.1275145739</v>
       </c>
       <c r="F5" t="n">
-        <v>87377.04842755778</v>
+        <v>88327.66865597613</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -490,16 +490,16 @@
         <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>134.9725573657529</v>
+        <v>54.7251788696357</v>
       </c>
       <c r="D6" t="n">
-        <v>29934.27202135729</v>
+        <v>30208.72576297088</v>
       </c>
       <c r="E6" t="n">
-        <v>136763.8744836825</v>
+        <v>138278.8260647392</v>
       </c>
       <c r="F6" t="n">
-        <v>117176.3478915493</v>
+        <v>118481.6692400773</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -510,16 +510,16 @@
         <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>140.5580129290992</v>
+        <v>57.33155897995591</v>
       </c>
       <c r="D7" t="n">
-        <v>28899.21141546324</v>
+        <v>29177.86394149999</v>
       </c>
       <c r="E7" t="n">
-        <v>161323.4971677305</v>
+        <v>163159.8397549045</v>
       </c>
       <c r="F7" t="n">
-        <v>145935.0012940834</v>
+        <v>147602.2016225974</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -530,16 +530,16 @@
         <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>146.7042465473987</v>
+        <v>60.174836658881</v>
       </c>
       <c r="D8" t="n">
-        <v>27898.20974469575</v>
+        <v>28181.4187445181</v>
       </c>
       <c r="E8" t="n">
-        <v>185021.4166345983</v>
+        <v>187186.347605868</v>
       </c>
       <c r="F8" t="n">
-        <v>173686.5067922318</v>
+        <v>175723.4455304566</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -550,16 +550,16 @@
         <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>153.3242212154569</v>
+        <v>63.52801663242784</v>
       </c>
       <c r="D9" t="n">
-        <v>26930.02056999071</v>
+        <v>27218.18602035765</v>
       </c>
       <c r="E9" t="n">
-        <v>207885.2040116655</v>
+        <v>210386.2264442421</v>
       </c>
       <c r="F9" t="n">
-        <v>200463.2031410071</v>
+        <v>202878.1035341818</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -570,16 +570,16 @@
         <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>160.3370679124407</v>
+        <v>67.17647183266834</v>
       </c>
       <c r="D10" t="n">
-        <v>25993.45429905659</v>
+        <v>26286.95588976162</v>
       </c>
       <c r="E10" t="n">
-        <v>229941.4945497843</v>
+        <v>232786.5336388723</v>
       </c>
       <c r="F10" t="n">
-        <v>226296.3203721512</v>
+        <v>229097.8829521108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -590,16 +590,16 @@
         <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>167.954816805236</v>
+        <v>71.21900364802411</v>
       </c>
       <c r="D11" t="n">
-        <v>25087.37522253353</v>
+        <v>25386.59590300602</v>
       </c>
       <c r="E11" t="n">
-        <v>251215.7407778796</v>
+        <v>254413.2598514688</v>
       </c>
       <c r="F11" t="n">
-        <v>251215.7407778795</v>
+        <v>254413.2598514688</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -610,16 +610,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>175.9388565726728</v>
+        <v>75.45940730200428</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>251039.8019213069</v>
+        <v>254337.8004441668</v>
       </c>
       <c r="F12" t="n">
-        <v>251039.8019213068</v>
+        <v>254337.8004441668</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -630,16 +630,16 @@
         <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>184.4782252721423</v>
+        <v>79.99362561927016</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>250855.3236960348</v>
+        <v>254257.8068185475</v>
       </c>
       <c r="F13" t="n">
-        <v>250855.3236960347</v>
+        <v>254257.8068185475</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -650,16 +650,16 @@
         <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>193.4717017276193</v>
+        <v>84.77208968759643</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250661.8519943071</v>
+        <v>254173.0347288599</v>
       </c>
       <c r="F14" t="n">
-        <v>250661.8519943071</v>
+        <v>254173.0347288599</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -670,16 +670,16 @@
         <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>202.9495785226281</v>
+        <v>89.62348872982992</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>250458.9024157845</v>
+        <v>254083.4112401301</v>
       </c>
       <c r="F15" t="n">
-        <v>250458.9024157844</v>
+        <v>254083.4112401301</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -690,16 +690,16 @@
         <v>44</v>
       </c>
       <c r="C16" t="n">
-        <v>212.9309796944082</v>
+        <v>94.76036609912722</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>250245.9714360901</v>
+        <v>253988.650874031</v>
       </c>
       <c r="F16" t="n">
-        <v>250245.97143609</v>
+        <v>253988.650874031</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -710,16 +710,16 @@
         <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>29370.59712656966</v>
+        <v>29643.23295580045</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>220875.3743095204</v>
+        <v>224345.4179182304</v>
       </c>
       <c r="F17" t="n">
-        <v>220875.3743095204</v>
+        <v>224345.4179182305</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -730,16 +730,16 @@
         <v>46</v>
       </c>
       <c r="C18" t="n">
-        <v>28322.64854561595</v>
+        <v>28616.2596185095</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>192552.7257639045</v>
+        <v>195729.1582997209</v>
       </c>
       <c r="F18" t="n">
-        <v>192552.7257639045</v>
+        <v>195729.158299721</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -750,16 +750,16 @@
         <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>27307.52103793656</v>
+        <v>27622.70861426685</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>165245.2047259679</v>
+        <v>168106.4496854541</v>
       </c>
       <c r="F19" t="n">
-        <v>165245.2047259679</v>
+        <v>168106.4496854541</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -770,16 +770,16 @@
         <v>48</v>
       </c>
       <c r="C20" t="n">
-        <v>26324.00175123979</v>
+        <v>26661.38497727565</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>138921.2029747281</v>
+        <v>141445.0647081784</v>
       </c>
       <c r="F20" t="n">
-        <v>138921.2029747281</v>
+        <v>141445.0647081785</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -790,16 +790,16 @@
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>25370.94571875433</v>
+        <v>25731.1473595951</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>113550.2572559738</v>
+        <v>115713.9173485833</v>
       </c>
       <c r="F21" t="n">
-        <v>113550.2572559737</v>
+        <v>115713.9173485834</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -810,16 +810,16 @@
         <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>24447.2471906634</v>
+        <v>24830.88039516451</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>89103.01006531043</v>
+        <v>90883.03695341881</v>
       </c>
       <c r="F22" t="n">
-        <v>89103.01006531036</v>
+        <v>90883.03695341888</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -830,16 +830,16 @@
         <v>51</v>
       </c>
       <c r="C23" t="n">
-        <v>23551.84018921059</v>
+        <v>23959.49642721014</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>65551.16987609983</v>
+        <v>66923.54052620867</v>
       </c>
       <c r="F23" t="n">
-        <v>65551.16987609975</v>
+        <v>66923.54052620873</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -850,16 +850,16 @@
         <v>52</v>
       </c>
       <c r="C24" t="n">
-        <v>22683.7216353764</v>
+        <v>23115.96010806899</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>42867.44824072343</v>
+        <v>43807.5804181397</v>
       </c>
       <c r="F24" t="n">
-        <v>42867.44824072336</v>
+        <v>43807.58041813974</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -870,16 +870,16 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>21841.92543799169</v>
+        <v>22299.24085277249</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>21025.52280273172</v>
+        <v>21508.33956536721</v>
       </c>
       <c r="F25" t="n">
-        <v>21025.52280273166</v>
+        <v>21508.33956536725</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -890,7 +890,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="n">
-        <v>21025.52280273166</v>
+        <v>21508.33956536725</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
